--- a/Our_Labs/Lab_2/Opracowanie wyników pomiaru.xlsx
+++ b/Our_Labs/Lab_2/Opracowanie wyników pomiaru.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polslpl-my.sharepoint.com/personal/kp306682_student_polsl_pl/Documents/Studia/#Fizyka/My_Labs/Lab_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen\Desktop\Git_repos\Fizyka\Our_Labs\Lab_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{D8DEDA97-7E27-4BBD-B856-3A477BCB0FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C905D643-FB4C-44DD-B7B3-ACB23EE07EC7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C305AA4-9701-4ABE-A78A-4064A8B9BA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BF9499B3-2041-4EAF-A3E1-B3B3A6C7F9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -410,6 +410,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -420,21 +435,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1636,6 +1636,30 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-67FD-4A19-8A2E-A18D7F529D71}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
               <c:f>(Arkusz1!$E$3,Arkusz1!$E$26)</c:f>
@@ -3009,13 +3033,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>585108</xdr:colOff>
+      <xdr:colOff>530679</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>108858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>50346</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>66989</xdr:rowOff>
     </xdr:to>
@@ -3040,6 +3064,84 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>128076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>449205</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>181654</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="pole tekstowe 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6207FF4-EC71-6F2B-74C4-CB4006520EE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18494828" y="11786676"/>
+          <a:ext cx="541734" cy="244078"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>x</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="-25000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>max</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3622,8 +3724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0D3CE8-817A-4440-892E-9F3E81450C06}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K45" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K2"/>
+    <sheetView tabSelected="1" topLeftCell="L42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD64" sqref="AD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3656,16 +3758,16 @@
       <c r="H1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3680,16 +3782,16 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="4">
@@ -3723,8 +3825,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
       <c r="E4" s="4">
         <v>0.03</v>
       </c>
@@ -4362,16 +4464,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Our_Labs/Lab_2/Opracowanie wyników pomiaru.xlsx
+++ b/Our_Labs/Lab_2/Opracowanie wyników pomiaru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen\Desktop\Git_repos\Fizyka\Our_Labs\Lab_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C305AA4-9701-4ABE-A78A-4064A8B9BA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3EBA0C-0E0D-42EF-ABA1-009942DC70B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BF9499B3-2041-4EAF-A3E1-B3B3A6C7F9D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>grubość x, mm</t>
   </si>
@@ -256,12 +256,135 @@
   <si>
     <t>5.Regresja liniowa ln(I)</t>
   </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, keV</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,mg/cm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Emax</t>
+  </si>
+  <si>
+    <t>Rmax</t>
+  </si>
+  <si>
+    <t>Nasze dane</t>
+  </si>
+  <si>
+    <r>
+      <t>u(E</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>u(E</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>max)</t>
+    </r>
+  </si>
+  <si>
+    <t>29,57</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,8 +439,49 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,6 +509,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -410,6 +580,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -422,21 +604,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -488,8 +672,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Wykres zależności natężenia wiązki od grubości absorbenta</a:t>
+              <a:rPr lang="en-US" sz="1600" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Z</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -498,15 +686,17 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19727430250880204"/>
-          <c:y val="4.6099394500251044E-2"/>
+          <c:x val="0.18521442182692011"/>
+          <c:y val="0.90912291713078497"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -538,8 +728,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13051911471392638"/>
-          <c:y val="0.21264052474152506"/>
+          <c:x val="0.13224190774197075"/>
+          <c:y val="0.14560957152750301"/>
           <c:w val="0.77150677437716675"/>
           <c:h val="0.62873670624234546"/>
         </c:manualLayout>
@@ -1179,6 +1369,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15959789313231915"/>
+          <c:y val="0.88459487058856434"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1215,8 +1413,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10291355582708346"/>
-          <c:y val="0.16448344709375734"/>
+          <c:x val="0.10145520987826706"/>
+          <c:y val="4.4798406851049473E-2"/>
           <c:w val="0.8028270731761441"/>
           <c:h val="0.69473274916736694"/>
         </c:manualLayout>
@@ -1880,6 +2078,423 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14156179546417366"/>
+          <c:y val="0.13731488141145071"/>
+          <c:w val="0.73282975277787032"/>
+          <c:h val="0.60553755727024128"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rmax,mg/cm2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln w="3175" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:tailEnd w="sm" len="sm"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$W$2:$W$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.1237243569579451</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.0710678118654755</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.9056941504209481</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.6602540378443873</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.180339887498949</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>10.142135623730951</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>11.811388300841896</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$V$2:$V$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.1237243569579451</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.0710678118654755</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.9056941504209481</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.6602540378443873</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11.180339887498949</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>14.142135623730951</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>15.811388300841896</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="rnd" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$S$2:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$T$2:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>420</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3773-4508-AC6E-CD3612CB500C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="99112416"/>
+        <c:axId val="170426720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="99112416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="170426720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="170426720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="99112416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1960,6 +2575,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2992,18 +3647,534 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>192276</xdr:colOff>
+      <xdr:colOff>217124</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>50287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>465601</xdr:colOff>
+      <xdr:colOff>490449</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>25440</xdr:rowOff>
     </xdr:to>
@@ -3033,15 +4204,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>530679</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>108858</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>50346</xdr:colOff>
+      <xdr:colOff>31297</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>66989</xdr:rowOff>
+      <xdr:rowOff>133665</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3069,15 +4240,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>517071</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>128076</xdr:rowOff>
+      <xdr:colOff>478971</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>42351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>449205</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>181654</xdr:rowOff>
+      <xdr:colOff>411105</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>95929</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3092,7 +4263,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18494828" y="11786676"/>
+          <a:off x="18452646" y="11129451"/>
           <a:ext cx="541734" cy="244078"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3144,6 +4315,42 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>131883</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>563439</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>183173</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACA369DD-137B-5D3C-5F74-975686FE4A9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3151,12 +4358,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.01033</cdr:x>
-      <cdr:y>0.17753</cdr:y>
+      <cdr:x>0.00808</cdr:x>
+      <cdr:y>0.11196</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.09735</cdr:x>
-      <cdr:y>0.24668</cdr:y>
+      <cdr:x>0.0951</cdr:x>
+      <cdr:y>0.18111</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3171,8 +4378,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="77316" y="807257"/>
-          <a:ext cx="651554" cy="314431"/>
+          <a:off x="59583" y="509082"/>
+          <a:ext cx="641470" cy="314436"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3197,12 +4404,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.91182</cdr:x>
-      <cdr:y>0.84652</cdr:y>
+      <cdr:x>0.91519</cdr:x>
+      <cdr:y>0.7773</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.99588</cdr:x>
-      <cdr:y>0.91507</cdr:y>
+      <cdr:x>0.99925</cdr:x>
+      <cdr:y>0.84585</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3217,8 +4424,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6827239" y="3849267"/>
-          <a:ext cx="629393" cy="311718"/>
+          <a:off x="6746348" y="3534517"/>
+          <a:ext cx="619650" cy="311707"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3281,12 +4488,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.01787</cdr:x>
-      <cdr:y>0.13813</cdr:y>
+      <cdr:x>0.02553</cdr:x>
+      <cdr:y>0.01491</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.08462</cdr:x>
-      <cdr:y>0.20011</cdr:y>
+      <cdr:x>0.09228</cdr:x>
+      <cdr:y>0.07689</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3301,8 +4508,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="126745" y="569107"/>
-          <a:ext cx="473544" cy="255366"/>
+          <a:off x="222297" y="70284"/>
+          <a:ext cx="581297" cy="292248"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3323,11 +4530,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.91254</cdr:x>
-      <cdr:y>0.86863</cdr:y>
+      <cdr:y>0.74541</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>1</cdr:x>
-      <cdr:y>0.93465</cdr:y>
+      <cdr:y>0.81143</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3342,8 +4549,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6961440" y="3617544"/>
-          <a:ext cx="667218" cy="274965"/>
+          <a:off x="7946920" y="3514730"/>
+          <a:ext cx="761652" cy="311297"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3363,12 +4570,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.01835</cdr:x>
-      <cdr:y>0.64955</cdr:y>
+      <cdr:x>0.02491</cdr:x>
+      <cdr:y>0.53441</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.10011</cdr:x>
-      <cdr:y>0.72902</cdr:y>
+      <cdr:x>0.10667</cdr:x>
+      <cdr:y>0.61388</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3383,8 +4590,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="129592" y="2676200"/>
-          <a:ext cx="577454" cy="327421"/>
+          <a:off x="216952" y="2519827"/>
+          <a:ext cx="712013" cy="374716"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3417,6 +4624,203 @@
               </a:solidFill>
             </a:rPr>
             <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.02236</cdr:x>
+      <cdr:y>0.12926</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.0477</cdr:x>
+      <cdr:y>0.16756</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="pole tekstowe 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8276E86B-4CF2-E070-FEBD-8E08229D08DB}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="109904" y="395653"/>
+          <a:ext cx="124557" cy="117230"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.06668</cdr:x>
+      <cdr:y>0.0402</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.17399</cdr:x>
+      <cdr:y>0.12159</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="pole tekstowe 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C65BC46-16E2-1345-BA1E-92A9C28B8238}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="344365" y="129883"/>
+          <a:ext cx="554275" cy="262980"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>R</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="-25000"/>
+            <a:t>max</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.90261</cdr:x>
+      <cdr:y>0.74588</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98596</cdr:x>
+      <cdr:y>0.81633</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="pole tekstowe 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF895263-80C5-3CE0-50AA-DBE109430C8B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4661761" y="2410070"/>
+          <a:ext cx="430451" cy="227621"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="-25000"/>
+            <a:t>max</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -3722,10 +5126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0D3CE8-817A-4440-892E-9F3E81450C06}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AD64" sqref="AD64"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3737,61 +5141,94 @@
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" customWidth="1"/>
     <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2">
         <v>99</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="S1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>10</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="S2" s="2">
+        <v>100</v>
+      </c>
+      <c r="T2" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="U2" cm="1">
+        <f t="array" ref="U2:U10">SQRT(S2:S10)</f>
+        <v>10</v>
+      </c>
+      <c r="V2" cm="1">
+        <f t="array" ref="V2:V10">0.5*_xlfn.ANCHORARRAY(U2)</f>
+        <v>5</v>
+      </c>
+      <c r="W2" cm="1">
+        <f t="array" ref="W2:W10">-4+_xlfn.ANCHORARRAY(V2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="4">
@@ -3823,10 +5260,25 @@
         <f>LN(H3)</f>
         <v>8.2357807319780516</v>
       </c>
+      <c r="S3" s="2">
+        <v>150</v>
+      </c>
+      <c r="T3" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="U3">
+        <v>12.24744871391589</v>
+      </c>
+      <c r="V3">
+        <v>6.1237243569579451</v>
+      </c>
+      <c r="W3">
+        <v>2.1237243569579451</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
+    <row r="4" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="E4" s="4">
         <v>0.03</v>
       </c>
@@ -3857,8 +5309,23 @@
         <v>8.1807209547950244</v>
       </c>
       <c r="M4" s="3"/>
+      <c r="S4" s="2">
+        <v>200</v>
+      </c>
+      <c r="T4" s="2">
+        <v>42</v>
+      </c>
+      <c r="U4">
+        <v>14.142135623730951</v>
+      </c>
+      <c r="V4">
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="W4">
+        <v>3.0710678118654755</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3895,8 +5362,23 @@
         <f t="array" ref="L5:L23">LN(H5:H23)</f>
         <v>8.1184170714588699</v>
       </c>
+      <c r="S5" s="2">
+        <v>250</v>
+      </c>
+      <c r="T5" s="2">
+        <v>59</v>
+      </c>
+      <c r="U5">
+        <v>15.811388300841896</v>
+      </c>
+      <c r="V5">
+        <v>7.9056941504209481</v>
+      </c>
+      <c r="W5">
+        <v>3.9056941504209481</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E6" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -3925,8 +5407,23 @@
       <c r="L6">
         <v>7.9719661409329143</v>
       </c>
+      <c r="S6" s="2">
+        <v>300</v>
+      </c>
+      <c r="T6" s="2">
+        <v>78</v>
+      </c>
+      <c r="U6">
+        <v>17.320508075688775</v>
+      </c>
+      <c r="V6">
+        <v>8.6602540378443873</v>
+      </c>
+      <c r="W6">
+        <v>4.6602540378443873</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E7" s="4">
         <v>0.09</v>
       </c>
@@ -3955,8 +5452,23 @@
       <c r="L7">
         <v>7.8417009460950124</v>
       </c>
+      <c r="S7" s="2">
+        <v>400</v>
+      </c>
+      <c r="T7" s="2">
+        <v>120</v>
+      </c>
+      <c r="U7">
+        <v>20</v>
+      </c>
+      <c r="V7">
+        <v>10</v>
+      </c>
+      <c r="W7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E8" s="4">
         <v>0.12</v>
       </c>
@@ -3984,8 +5496,23 @@
       <c r="L8">
         <v>7.7107173255492887</v>
       </c>
+      <c r="S8" s="2">
+        <v>500</v>
+      </c>
+      <c r="T8" s="2">
+        <v>165</v>
+      </c>
+      <c r="U8">
+        <v>22.360679774997898</v>
+      </c>
+      <c r="V8">
+        <v>11.180339887498949</v>
+      </c>
+      <c r="W8">
+        <v>7.180339887498949</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E9" s="4">
         <v>0.15</v>
       </c>
@@ -4013,8 +5540,23 @@
       <c r="L9">
         <v>7.6069205318676456</v>
       </c>
+      <c r="S9" s="2">
+        <v>800</v>
+      </c>
+      <c r="T9" s="2">
+        <v>310</v>
+      </c>
+      <c r="U9">
+        <v>28.284271247461902</v>
+      </c>
+      <c r="V9">
+        <v>14.142135623730951</v>
+      </c>
+      <c r="W9">
+        <v>10.142135623730951</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E10" s="4">
         <v>0.18</v>
       </c>
@@ -4042,8 +5584,26 @@
       <c r="L10">
         <v>7.4235934445716723</v>
       </c>
+      <c r="O10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="T10" s="2">
+        <v>420</v>
+      </c>
+      <c r="U10">
+        <v>31.622776601683793</v>
+      </c>
+      <c r="V10">
+        <v>15.811388300841896</v>
+      </c>
+      <c r="W10">
+        <v>11.811388300841896</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E11" s="4">
         <v>0.21</v>
       </c>
@@ -4071,8 +5631,21 @@
       <c r="L11">
         <v>7.2197300440029624</v>
       </c>
+      <c r="O11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" s="19">
+        <f>FORECAST(T11,S2:S10,T2:T10)</f>
+        <v>871.79202911283051</v>
+      </c>
+      <c r="T11" s="20">
+        <v>348.13</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E12" s="4">
         <v>0.24</v>
       </c>
@@ -4100,8 +5673,10 @@
       <c r="L12">
         <v>7.0265388149721044</v>
       </c>
+      <c r="S12" s="17"/>
+      <c r="T12" s="16"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="19.5" x14ac:dyDescent="0.35">
       <c r="E13" s="4">
         <v>0.27</v>
       </c>
@@ -4129,8 +5704,15 @@
       <c r="L13">
         <v>6.9310239059214913</v>
       </c>
+      <c r="R13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13">
+        <f>SQRT(S11)</f>
+        <v>29.526124519022648</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E14" s="4">
         <v>0.3</v>
       </c>
@@ -4159,7 +5741,7 @@
         <v>6.7679933366069784</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E15" s="4">
         <v>0.33</v>
       </c>
@@ -4187,8 +5769,11 @@
       <c r="L15">
         <v>6.6950661855717861</v>
       </c>
+      <c r="S15" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E16" s="4">
         <v>0.36</v>
       </c>
@@ -4464,16 +6049,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
